--- a/budget/Engine Programs in PB23.xlsx
+++ b/budget/Engine Programs in PB23.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NVelazquez\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Users\Greg\Repositories\Engines\budget\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{30A24AA4-6E45-4791-B70A-FCD6285946A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DCD8643-63B6-47F2-AF8B-6FE0356CF1B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19080" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{9FEDBA5A-AD83-49C1-8B09-AD2E08511C02}"/>
+    <workbookView xWindow="8010" yWindow="1215" windowWidth="19500" windowHeight="13485" xr2:uid="{9FEDBA5A-AD83-49C1-8B09-AD2E08511C02}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -622,7 +622,7 @@
   <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -660,26 +660,26 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="2" t="s">
+      <c r="A2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="2">
-        <v>635098</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>7</v>
+      <c r="C2" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" s="5">
+        <v>671012</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -690,16 +690,16 @@
         <v>9</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="E3" s="4">
-        <v>623012</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>15</v>
+        <v>675365</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>18</v>
       </c>
       <c r="G3" s="5" t="s">
         <v>7</v>
@@ -709,23 +709,23 @@
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="5" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>33</v>
+        <v>39</v>
+      </c>
+      <c r="E4" s="3">
+        <v>624347</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>37</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -735,42 +735,42 @@
       <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="3">
-        <v>632480</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>37</v>
+      <c r="C5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="4">
+        <v>623012</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="2" t="s">
+      <c r="A6" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>34</v>
+      <c r="C6" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>11</v>
       </c>
       <c r="E6" s="5">
-        <v>675365</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G6" s="5" t="s">
+        <v>623048</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G6" s="6" t="s">
         <v>7</v>
       </c>
     </row>
@@ -782,26 +782,26 @@
         <v>9</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="E7" s="4">
-        <v>671012</v>
+        <v>623066</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>36</v>
+        <v>23</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="3" t="s">
+      <c r="A8" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C8" s="3" t="s">
@@ -811,58 +811,58 @@
         <v>10</v>
       </c>
       <c r="E8" s="3">
-        <v>634921</v>
+        <v>632480</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="G8" s="6" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="4" t="s">
+      <c r="A9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9" s="4">
-        <v>623048</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>21</v>
+      <c r="C9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="3">
+        <v>634921</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>20</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>7</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E10" s="3">
-        <v>624347</v>
+      <c r="C10" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="4">
+        <v>635098</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G10" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10" s="2" t="s">
         <v>7</v>
       </c>
     </row>
@@ -870,23 +870,23 @@
       <c r="A11" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E11" s="4">
-        <v>623066</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>23</v>
+      <c r="C11" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -1143,6 +1143,11 @@
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G13">
+    <sortCondition ref="B2:B13"/>
+    <sortCondition ref="C2:C13"/>
+    <sortCondition ref="E2:E13"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>